--- a/FinancialPlanningBE/Test/UnitTesting/File/CorrectPlan.xlsx
+++ b/FinancialPlanningBE/Test/UnitTesting/File/CorrectPlan.xlsx
@@ -1,37 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectBased\FinancialPlanningBE\Test\UnitTesting\File\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Csharp\FinancialPlanning\financial-planning\FinancialPlanningBE\Test\UnitTesting\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0FA246-525E-4D8C-AB09-B06542B3ACFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22248" windowHeight="13176" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Expense plan" sheetId="2" r:id="rId3"/>
-    <sheet name="Expense Report" sheetId="3" r:id="rId4"/>
-    <sheet name="List" sheetId="1" r:id="rId5"/>
-    <sheet name="Evaluation Warning" sheetId="4" r:id="rId6"/>
-    <sheet name="Evaluation Warning (1)" sheetId="5" r:id="rId7"/>
+    <sheet name="Expense plan" sheetId="2" r:id="rId1"/>
+    <sheet name="Expense Report" sheetId="3" r:id="rId2"/>
+    <sheet name="List" sheetId="1" r:id="rId3"/>
+    <sheet name="Evaluation Warning" sheetId="4" r:id="rId4"/>
+    <sheet name="Evaluation Warning (1)" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -207,19 +198,13 @@
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <i/>
@@ -272,6 +257,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -308,162 +306,63 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-  </cellStyleXfs>
-  <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="15" builtinId="5"/>
-    <cellStyle name="Currency" xfId="16" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
-    <cellStyle name="Comma" xfId="18" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -737,33 +636,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="D1">
-      <selection pane="topLeft" activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.714285714285715" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.428571428571429" customWidth="1"/>
-    <col min="3" max="3" width="20.571428571428573" customWidth="1"/>
-    <col min="4" max="4" width="18.571428571428573" customWidth="1"/>
-    <col min="5" max="5" width="20.428571428571427" customWidth="1"/>
-    <col min="6" max="6" width="10.857142857142858" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.428571428571429" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.142857142857142" customWidth="1"/>
-    <col min="9" max="9" width="14.857142857142858" customWidth="1"/>
-    <col min="10" max="10" width="7.571428571428571" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.571428571428571" customWidth="1"/>
-    <col min="12" max="12" width="21.857142857142858" customWidth="1"/>
-    <col min="13" max="13" width="19.428571428571427" customWidth="1"/>
-    <col min="14" max="14" width="23.571428571428573" customWidth="1"/>
-    <col min="15" max="15" width="16.428571428571427" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" customWidth="1"/>
+    <col min="10" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5546875" customWidth="1"/>
+    <col min="12" max="12" width="21.88671875" customWidth="1"/>
+    <col min="13" max="13" width="19.44140625" customWidth="1"/>
+    <col min="14" max="14" width="23.5546875" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="28.8">
+    <row r="1" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -796,7 +695,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:15" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -841,7 +740,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="14.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>45359</v>
       </c>
@@ -884,7 +783,7 @@
       </c>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" ht="14.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>45359</v>
       </c>
@@ -929,7 +828,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="14.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -946,7 +845,7 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="14.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -963,7 +862,7 @@
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
     </row>
-    <row r="7" spans="1:15" ht="14.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -980,7 +879,7 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="14.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -997,7 +896,7 @@
       <c r="N8" s="6"/>
       <c r="O8" s="7"/>
     </row>
-    <row r="9" spans="1:15" ht="14.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1015,54 +914,71 @@
       <c r="O9" s="4"/>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C9">
-      <formula1>List!$B$3:$B$9</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E9">
-      <formula1>List!$E$3:$E$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M6">
-      <formula1>List!$B$13:$B$17</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L9">
-      <formula1>List!$E$13:$E$17</formula1>
-    </dataValidation>
-  </dataValidations>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+          <x14:formula1>
+            <xm:f>List!$B$3:$B$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+          <x14:formula1>
+            <xm:f>List!$E$3:$E$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>E3:E9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+          <x14:formula1>
+            <xm:f>List!$B$13:$B$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>M3:M6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
+          <x14:formula1>
+            <xm:f>List!$E$13:$E$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>L3:L9</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8367B7-7187-43D3-9563-6BC6BE41AFB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8367B7-7187-43D3-9563-6BC6BE41AFB8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC20"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="E13" sqref="E13:E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.142857142857143" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.285714285714285" customWidth="1"/>
-    <col min="3" max="3" width="17.285714285714285" customWidth="1"/>
-    <col min="4" max="4" width="4.714285714285714" customWidth="1"/>
-    <col min="5" max="5" width="32.714285714285715" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>18</v>
       </c>
@@ -1097,7 +1013,7 @@
       <c r="AB1" s="8"/>
       <c r="AC1" s="8"/>
     </row>
-    <row r="2" spans="1:29" ht="14.4">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>20</v>
       </c>
@@ -1136,7 +1052,7 @@
       <c r="AB2" s="8"/>
       <c r="AC2" s="8"/>
     </row>
-    <row r="3" spans="1:29" ht="14.4">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>23</v>
@@ -1171,7 +1087,7 @@
       <c r="AB3" s="8"/>
       <c r="AC3" s="8"/>
     </row>
-    <row r="4" spans="1:29" ht="14.4">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>25</v>
@@ -1206,7 +1122,7 @@
       <c r="AB4" s="8"/>
       <c r="AC4" s="8"/>
     </row>
-    <row r="5" spans="1:29" ht="14.4">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>27</v>
@@ -1241,7 +1157,7 @@
       <c r="AB5" s="9"/>
       <c r="AC5" s="9"/>
     </row>
-    <row r="6" spans="1:29" ht="14.4">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>29</v>
@@ -1276,7 +1192,7 @@
       <c r="AB6" s="9"/>
       <c r="AC6" s="9"/>
     </row>
-    <row r="7" spans="1:29" ht="14.4">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>31</v>
@@ -1309,7 +1225,7 @@
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
     </row>
-    <row r="8" spans="1:29" ht="14.4">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>32</v>
@@ -1342,7 +1258,7 @@
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>33</v>
@@ -1375,7 +1291,7 @@
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1406,7 +1322,7 @@
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>34</v>
       </c>
@@ -1441,7 +1357,7 @@
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>20</v>
       </c>
@@ -1480,7 +1396,7 @@
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>36</v>
@@ -1515,7 +1431,7 @@
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
     </row>
-    <row r="14" spans="1:26" ht="14.4">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>38</v>
@@ -1547,7 +1463,7 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" ht="14.4">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>40</v>
@@ -1579,7 +1495,7 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" ht="14.4">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>42</v>
@@ -1611,7 +1527,7 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="14.4">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>44</v>
@@ -1643,7 +1559,7 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="14.4">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1671,7 +1587,7 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" ht="14.4">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1699,7 +1615,7 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" ht="14.4">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1729,19 +1645,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="1" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{f175ada8-510e-412b-9351-5f0b7657a82b}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F175ADA8-510E-412B-9351-5F0B7657A82B}">
   <dimension ref="A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="5" spans="1:1" ht="23.25" customHeight="1">
+    <row r="5" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16" t="s">
         <v>52</v>
       </c>
@@ -1752,15 +1668,15 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3197ea8f-c181-45a6-8d9e-1496a3256742}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3197EA8F-C181-45A6-8D9E-1496A3256742}">
   <dimension ref="A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="5" spans="1:1" ht="23.25" customHeight="1">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="16" t="s">
         <v>52</v>
       </c>
     </row>
